--- a/medicine/Œil et vue/Myosis/Myosis.xlsx
+++ b/medicine/Œil et vue/Myosis/Myosis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le myosis est une diminution du diamètre de la pupille par contraction du muscle constricteur de l'iris, dont les fibres sont circulaires. C'est l'effet contraire de la mydriase.
 </t>
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette réaction physiologique se produit à la lumière, et est réversible dans l'obscurité. Physiologiquement, elle est provoquée par la contraction des muscles annulaires et ciliaires dans le but de favoriser l'accommodation. Plusieurs causes peuvent expliquer ce phénomène. Ainsi, la consommation de drogues (activant les récepteurs parasympathiques), et une exposition prolongée à des lumières bleues (permanence de la réaction d’accommodation à la lumière) peuvent entraîner une contraction anormalement longue des muscles ciliaires.
 Le myosis est obtenu par une stimulation du système nerveux autonome parasympathique.
